--- a/Original/CN/Game/Zone.xlsx
+++ b/Original/CN/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Original/CN/Game/Zone.xlsx
+++ b/Original/CN/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="509">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -782,6 +782,15 @@
     <t xml:space="preserve">イークの洞窟</t>
   </si>
   <si>
+    <t xml:space="preserve">temple_undersea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunken Temple of Lurie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルーリエ海底神殿</t>
+  </si>
+  <si>
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
@@ -953,6 +962,15 @@
     <t xml:space="preserve">tent2</t>
   </si>
   <si>
+    <t xml:space="preserve">tent_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かまくら</t>
+  </si>
+  <si>
     <t xml:space="preserve">arena</t>
   </si>
   <si>
@@ -1043,6 +1061,15 @@
     <t xml:space="preserve">遺跡</t>
   </si>
   <si>
+    <t xml:space="preserve">dungeon_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underwater Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底遺跡</t>
+  </si>
+  <si>
     <t xml:space="preserve">dungeon_factory</t>
   </si>
   <si>
@@ -1118,6 +1145,9 @@
     <t xml:space="preserve">Alpha 20.65</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.133</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 12.1</t>
   </si>
   <si>
@@ -1127,6 +1157,9 @@
     <t xml:space="preserve">Beta 22.42</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.145</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.7</t>
   </si>
   <si>
@@ -1322,6 +1355,9 @@
     <t xml:space="preserve">小鬼洞穴</t>
   </si>
   <si>
+    <t xml:space="preserve">露里耶海底神殿</t>
+  </si>
+  <si>
     <t xml:space="preserve">鲁米艾斯特</t>
   </si>
   <si>
@@ -1358,6 +1394,9 @@
     <t xml:space="preserve">帐篷</t>
   </si>
   <si>
+    <t xml:space="preserve">冰屋</t>
+  </si>
+  <si>
     <t xml:space="preserve">斗技场</t>
   </si>
   <si>
@@ -1380,6 +1419,9 @@
   </si>
   <si>
     <t xml:space="preserve">遗迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底遗迹</t>
   </si>
   <si>
     <t xml:space="preserve">机械遗迹</t>
@@ -1626,10 +1668,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1638,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1654,10 +1696,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1666,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1682,10 +1724,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1703,10 +1745,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1724,10 +1766,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1738,7 +1780,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1752,10 +1794,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1773,7 +1815,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1785,7 +1827,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1801,10 +1843,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1822,10 +1864,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1843,10 +1885,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1864,10 +1906,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1876,7 +1918,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1892,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1904,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1920,10 +1962,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1932,7 +1974,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1948,10 +1990,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1960,7 +2002,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -1976,10 +2018,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1997,10 +2039,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2009,7 +2051,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2025,10 +2067,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2046,10 +2088,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2067,10 +2109,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2088,10 +2130,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2109,10 +2151,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2130,10 +2172,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2151,10 +2193,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2165,7 +2207,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="J25" t="s">
         <v>98</v>
@@ -2179,10 +2221,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C26" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -2193,7 +2235,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="J26" t="s">
         <v>103</v>
@@ -2207,10 +2249,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2221,7 +2263,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
@@ -2235,10 +2277,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -2256,10 +2298,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2277,10 +2319,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2291,7 +2333,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="J30" t="s">
         <v>119</v>
@@ -2305,10 +2347,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -2319,7 +2361,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="J31" t="s">
         <v>124</v>
@@ -2333,10 +2375,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -2354,10 +2396,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2375,10 +2417,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2396,10 +2438,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2417,10 +2459,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2438,10 +2480,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2452,7 +2494,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2466,10 +2508,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2487,10 +2529,10 @@
         <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -2508,10 +2550,10 @@
         <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -2522,7 +2564,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2536,10 +2578,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2550,7 +2592,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2564,10 +2606,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2578,7 +2620,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2592,10 +2634,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2606,7 +2648,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2620,10 +2662,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2634,7 +2676,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2648,10 +2690,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C45" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2662,7 +2704,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2676,10 +2718,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2690,7 +2732,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2704,10 +2746,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2718,7 +2760,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2732,10 +2774,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2746,7 +2788,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2760,10 +2802,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2774,7 +2816,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2788,10 +2830,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2809,10 +2851,10 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D51" t="s">
         <v>206</v>
@@ -2823,7 +2865,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="J51" t="s">
         <v>208</v>
@@ -2837,10 +2879,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2858,10 +2900,10 @@
         <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -2879,10 +2921,10 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
         <v>217</v>
@@ -2893,7 +2935,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="J54" t="s">
         <v>219</v>
@@ -2907,7 +2949,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s">
         <v>223</v>
@@ -2928,10 +2970,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C56" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -2949,10 +2991,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C57" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -2970,10 +3012,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -2991,10 +3033,10 @@
         <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D59" t="s">
         <v>234</v>
@@ -3012,10 +3054,10 @@
         <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D60" t="s">
         <v>237</v>
@@ -3033,10 +3075,10 @@
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D61" t="s">
         <v>240</v>
@@ -3047,7 +3089,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="J61" t="s">
         <v>242</v>
@@ -3061,10 +3103,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3075,7 +3117,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3089,10 +3131,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3110,10 +3152,10 @@
         <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
@@ -3131,10 +3173,10 @@
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D65" t="s">
         <v>256</v>
@@ -3144,102 +3186,102 @@
       </c>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65" t="s">
-        <v>487</v>
-      </c>
-      <c r="J65" t="s">
-        <v>258</v>
-      </c>
-      <c r="K65" t="s">
-        <v>259</v>
-      </c>
+      <c r="J65"/>
+      <c r="K65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
         <v>260</v>
-      </c>
-      <c r="B66" t="s">
-        <v>355</v>
-      </c>
-      <c r="C66" t="s">
-        <v>436</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" t="s">
-        <v>262</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C67" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
         <v>265</v>
-      </c>
-      <c r="B67" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" t="s">
-        <v>267</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" t="s">
         <v>270</v>
-      </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" t="s">
-        <v>438</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>272</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="J68"/>
-      <c r="K68"/>
+      <c r="I68" t="s">
+        <v>503</v>
+      </c>
+      <c r="J68" t="s">
+        <v>271</v>
+      </c>
+      <c r="K68" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3249,123 +3291,123 @@
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69" t="s">
-        <v>490</v>
-      </c>
-      <c r="J69" t="s">
-        <v>276</v>
-      </c>
-      <c r="K69" t="s">
-        <v>277</v>
-      </c>
+      <c r="J69"/>
+      <c r="K69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" t="s">
+        <v>451</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" t="s">
         <v>278</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
-      </c>
-      <c r="C70" t="s">
-        <v>440</v>
-      </c>
-      <c r="D70" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" t="s">
-        <v>280</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="J70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>377</v>
+      </c>
+      <c r="C71" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
         <v>283</v>
-      </c>
-      <c r="B71" t="s">
-        <v>367</v>
-      </c>
-      <c r="C71" t="s">
-        <v>440</v>
-      </c>
-      <c r="D71" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" t="s">
-        <v>280</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="J71"/>
-      <c r="K71"/>
+      <c r="I71" t="s">
+        <v>505</v>
+      </c>
+      <c r="J71" t="s">
+        <v>284</v>
+      </c>
+      <c r="K71" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C72" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72" t="s">
-        <v>492</v>
-      </c>
-      <c r="J72" t="s">
-        <v>287</v>
-      </c>
-      <c r="K72" t="s">
-        <v>288</v>
-      </c>
+      <c r="J72"/>
+      <c r="K72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" t="s">
         <v>289</v>
-      </c>
-      <c r="B73" t="s">
-        <v>368</v>
-      </c>
-      <c r="C73" t="s">
-        <v>442</v>
-      </c>
-      <c r="D73" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>291</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="J73"/>
-      <c r="K73"/>
+      <c r="I73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" t="s">
+        <v>290</v>
+      </c>
+      <c r="K73" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D74" t="s">
         <v>293</v>
@@ -3383,10 +3425,10 @@
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D75" t="s">
         <v>296</v>
@@ -3396,46 +3438,46 @@
       </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75" t="s">
-        <v>493</v>
-      </c>
-      <c r="J75" t="s">
-        <v>298</v>
-      </c>
-      <c r="K75" t="s">
-        <v>299</v>
-      </c>
+      <c r="J75"/>
+      <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" t="s">
+        <v>456</v>
+      </c>
+      <c r="D76" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" t="s">
         <v>300</v>
-      </c>
-      <c r="B76" t="s">
-        <v>355</v>
-      </c>
-      <c r="C76" t="s">
-        <v>445</v>
-      </c>
-      <c r="D76" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" t="s">
-        <v>302</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="J76"/>
-      <c r="K76"/>
+      <c r="I76" t="s">
+        <v>507</v>
+      </c>
+      <c r="J76" t="s">
+        <v>301</v>
+      </c>
+      <c r="K76" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3453,16 +3495,16 @@
         <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -3471,13 +3513,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D79" t="s">
         <v>96</v>
@@ -3492,19 +3534,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -3516,16 +3558,16 @@
         <v>311</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3534,19 +3576,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" t="s">
+        <v>458</v>
+      </c>
+      <c r="D82" t="s">
         <v>312</v>
       </c>
-      <c r="B82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C82" t="s">
-        <v>447</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>313</v>
-      </c>
-      <c r="E82" t="s">
-        <v>314</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3558,10 +3600,10 @@
         <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D83" t="s">
         <v>316</v>
@@ -3579,10 +3621,10 @@
         <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C84" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D84" t="s">
         <v>319</v>
@@ -3600,10 +3642,10 @@
         <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D85" t="s">
         <v>322</v>
@@ -3621,10 +3663,10 @@
         <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C86" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D86" t="s">
         <v>325</v>
@@ -3642,10 +3684,10 @@
         <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>463</v>
       </c>
       <c r="D87" t="s">
         <v>328</v>
@@ -3663,10 +3705,10 @@
         <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C88" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D88" t="s">
         <v>331</v>
@@ -3684,7 +3726,7 @@
         <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C89" t="s">
         <v>335</v>
@@ -3705,10 +3747,10 @@
         <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C90" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D90" t="s">
         <v>337</v>
@@ -3726,10 +3768,10 @@
         <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
         <v>340</v>
@@ -3747,10 +3789,10 @@
         <v>342</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D92" t="s">
         <v>343</v>
@@ -3768,10 +3810,10 @@
         <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D93" t="s">
         <v>346</v>
@@ -3789,16 +3831,16 @@
         <v>348</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="D94" t="s">
         <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3807,30 +3849,93 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95" t="s">
-        <v>494</v>
-      </c>
-      <c r="J95" t="s">
-        <v>353</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
         <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>364</v>
+      </c>
+      <c r="C96" t="s">
+        <v>470</v>
+      </c>
+      <c r="D96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" t="s">
+        <v>356</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" t="s">
+        <v>358</v>
+      </c>
+      <c r="E97" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" t="s">
+        <v>471</v>
+      </c>
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
+        <v>361</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" t="s">
+        <v>508</v>
+      </c>
+      <c r="J98" t="s">
+        <v>362</v>
+      </c>
+      <c r="K98" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Zone.xlsx
+++ b/Original/CN/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="547">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">startVillage2</t>
   </si>
   <si>
-    <t xml:space="preserve">Somewhere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どこか</t>
+    <t xml:space="preserve">Garden of Eternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の庭</t>
   </si>
   <si>
     <t xml:space="preserve">startVillage</t>
@@ -302,6 +302,15 @@
     <t xml:space="preserve">野原</t>
   </si>
   <si>
+    <t xml:space="preserve">survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空</t>
+  </si>
+  <si>
     <t xml:space="preserve">nymelle</t>
   </si>
   <si>
@@ -440,6 +449,12 @@
     <t xml:space="preserve">パルミア大使館</t>
   </si>
   <si>
+    <t xml:space="preserve">You see the embassy of Palmia. The building is heavily guarded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルミア大使館が見える。建物は厳重に警備されている。</t>
+  </si>
+  <si>
     <t xml:space="preserve">aquli</t>
   </si>
   <si>
@@ -773,6 +788,12 @@
     <t xml:space="preserve">ミノタウロスの巣</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s a minotaur’s lair. The entrance hole is enormous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロスの巣だ。入口の穴はとても大きい。</t>
+  </si>
+  <si>
     <t xml:space="preserve">cave_yeek</t>
   </si>
   <si>
@@ -782,6 +803,21 @@
     <t xml:space="preserve">イークの洞窟</t>
   </si>
   <si>
+    <t xml:space="preserve">You see a cave inhabited by yeeks. The entrance is scarcely more than a hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イークが住む洞窟だ。入口の穴はとても小さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cave_fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest of the Lost Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰らずの森</t>
+  </si>
+  <si>
     <t xml:space="preserve">temple_undersea</t>
   </si>
   <si>
@@ -791,6 +827,12 @@
     <t xml:space="preserve">ルーリエ海底神殿</t>
   </si>
   <si>
+    <t xml:space="preserve">You see an entrance leading to the ruins sunken beneath the sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底に沈んだ遺跡への入口がある。</t>
+  </si>
+  <si>
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
@@ -821,6 +863,24 @@
     <t xml:space="preserve">寺院がある。神聖な雰囲気がする。</t>
   </si>
   <si>
+    <t xml:space="preserve">curryruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doga Ruins Camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガ遺跡キャンプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curryruin_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory of Doga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガの工場</t>
+  </si>
+  <si>
     <t xml:space="preserve">miral_garok</t>
   </si>
   <si>
@@ -896,12 +956,18 @@
     <t xml:space="preserve">windrest</t>
   </si>
   <si>
-    <t xml:space="preserve">The Place Where Winds Rest</t>
+    <t xml:space="preserve">Where Winds Rest</t>
   </si>
   <si>
     <t xml:space="preserve">風の眠る場所</t>
   </si>
   <si>
+    <t xml:space="preserve">You see a forest utterly still, without a single breath of wind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見慣れない木々がそびえ立っている。風一つ吹いていない静かな森だ。</t>
+  </si>
+  <si>
     <t xml:space="preserve">snowgrave</t>
   </si>
   <si>
@@ -911,6 +977,12 @@
     <t xml:space="preserve">永久凍土</t>
   </si>
   <si>
+    <t xml:space="preserve">Is this... the end of the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは…世界の果てだろうか？</t>
+  </si>
+  <si>
     <t xml:space="preserve">lumiest_graveyard</t>
   </si>
   <si>
@@ -1118,12 +1190,18 @@
     <t xml:space="preserve">EA 23.24</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.22</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 21.0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.187</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.40</t>
   </si>
   <si>
@@ -1145,9 +1223,15 @@
     <t xml:space="preserve">Alpha 20.65</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.184</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.133</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.190</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 12.1</t>
   </si>
   <si>
@@ -1223,7 +1307,7 @@
     <t xml:space="preserve">避难所</t>
   </si>
   <si>
-    <t xml:space="preserve">某处</t>
+    <t xml:space="preserve">永恒庭院</t>
   </si>
   <si>
     <t xml:space="preserve">测试区域</t>
@@ -1238,6 +1322,9 @@
     <t xml:space="preserve">原野</t>
   </si>
   <si>
+    <t xml:space="preserve">天空</t>
+  </si>
+  <si>
     <t xml:space="preserve">尼米尔</t>
   </si>
   <si>
@@ -1349,12 +1436,15 @@
     <t xml:space="preserve">令人毛骨悚然的城</t>
   </si>
   <si>
-    <t xml:space="preserve">弥诺陶洛斯巢穴</t>
+    <t xml:space="preserve">牛头人巢穴</t>
   </si>
   <si>
     <t xml:space="preserve">小鬼洞穴</t>
   </si>
   <si>
+    <t xml:space="preserve">不归之森</t>
+  </si>
+  <si>
     <t xml:space="preserve">露里耶海底神殿</t>
   </si>
   <si>
@@ -1364,6 +1454,12 @@
     <t xml:space="preserve">众神休战之地</t>
   </si>
   <si>
+    <t xml:space="preserve">多伽遗迹营地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多伽的工厂</t>
+  </si>
+  <si>
     <t xml:space="preserve">米拉尔·盖罗克工房</t>
   </si>
   <si>
@@ -1475,6 +1571,9 @@
     <t xml:space="preserve">你看到了奥尔维纳村。你闻到了葡萄酒和温泉的香味。</t>
   </si>
   <si>
+    <t xml:space="preserve">你看到了帕罗米亚大使馆。整栋建筑戒备森严。</t>
+  </si>
+  <si>
     <t xml:space="preserve">一个奇妙的建筑物出现在你眼前。</t>
   </si>
   <si>
@@ -1505,19 +1604,28 @@
     <t xml:space="preserve">你看到了米西利亚都城。被自然包围的安宁城镇绵延开来。</t>
   </si>
   <si>
-    <t xml:space="preserve">你看到了特尔斐城镇。你感到有什么东西散发着危险的气息。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到了莱希墨苏的洞窟，感受到一股命运的悸动。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到一座监狱。入口的门牢牢地锁着。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到一片精心打理过的庭院。它温暖了你的心灵 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到这里有一座令人毛骨悚然的城。本能告诉你，绝对不能靠近那里。</t>
+    <t xml:space="preserve">这里是特尔斐城镇。你感到有什么东西散发着危险的气息。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里是莱希墨苏洞窟，你感受到一股命运的悸动。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里有一座监狱。入口的门牢牢地锁着。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你看到了一片精心打理过的庭院。它温暖了你的心灵。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里有一座令人毛骨悚然的城。本能告诉你，绝对不能靠近这里。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里是牛头人的巢穴。洞口非常宽大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里有小鬼居住的洞穴。洞口非常狭小。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里有沉入海底的遗迹的入口。</t>
   </si>
   <si>
     <t xml:space="preserve">你看到了都市鲁米艾斯特。你听到了潺潺的流水声。</t>
@@ -1532,16 +1640,22 @@
     <t xml:space="preserve">这里有商人公会。无数货车在此停靠。</t>
   </si>
   <si>
-    <t xml:space="preserve">你看到一座很大的宅邸。周围的空气冰冷无比。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到了诺耶尔村，并且听到了孩子们的笑声。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到一片被静寂包裹着的墓地…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你看到了一家孤儿院，也听到了孩子们的笑声。</t>
+    <t xml:space="preserve">你看到了一座很大的宅邸。周围的空气冰冷无比。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里是诺耶尔村。你听到了孩子们的笑声。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陌生的树木耸立着。这是一片无风的寂静森林。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里…难道是世界的尽头？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你看到了一片被静寂包裹着的墓地…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你看到了一家孤儿院，听到了孩子们的笑声。</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1680,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1696,10 +1810,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1708,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1724,10 +1838,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1745,10 +1859,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1766,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1780,7 +1894,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1794,10 +1908,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1815,7 +1929,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1827,7 +1941,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1843,10 +1957,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1864,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1885,10 +1999,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1906,10 +2020,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1918,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1934,10 +2048,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1946,7 +2060,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1962,10 +2076,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1974,7 +2088,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1990,10 +2104,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -2002,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2018,10 +2132,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2039,10 +2153,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2051,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2067,10 +2181,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2088,10 +2202,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2109,10 +2223,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2130,10 +2244,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2151,10 +2265,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2172,10 +2286,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2193,10 +2307,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2206,102 +2320,102 @@
       </c>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" t="s">
-        <v>481</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
+      <c r="J25"/>
+      <c r="K25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C26" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
         <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="I28" t="s">
+        <v>515</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2319,10 +2433,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2332,74 +2446,74 @@
       </c>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="s">
-        <v>484</v>
-      </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" t="s">
-        <v>120</v>
-      </c>
+      <c r="J30"/>
+      <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
         <v>121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C31" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>123</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
         <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32"/>
-      <c r="K32"/>
+      <c r="I32" t="s">
+        <v>517</v>
+      </c>
+      <c r="J32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2417,10 +2531,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2438,10 +2552,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2459,10 +2573,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2480,10 +2594,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2494,7 +2608,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2508,10 +2622,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2521,24 +2635,31 @@
       </c>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
+      <c r="I38" t="s">
+        <v>519</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2547,41 +2668,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40" t="s">
-        <v>487</v>
-      </c>
-      <c r="J40" t="s">
-        <v>155</v>
-      </c>
-      <c r="K40" t="s">
-        <v>156</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2592,7 +2706,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2606,10 +2720,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2620,7 +2734,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2634,10 +2748,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2648,7 +2762,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2662,10 +2776,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2676,7 +2790,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2690,10 +2804,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2704,7 +2818,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2718,10 +2832,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2732,7 +2846,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2746,10 +2860,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2760,7 +2874,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2774,10 +2888,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2788,7 +2902,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2802,10 +2916,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2816,7 +2930,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2830,10 +2944,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2843,46 +2957,46 @@
       </c>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="J50"/>
-      <c r="K50"/>
+      <c r="I50" t="s">
+        <v>529</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="I51" t="s">
-        <v>497</v>
-      </c>
-      <c r="J51" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" t="s">
-        <v>209</v>
-      </c>
+      <c r="J51"/>
+      <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2892,24 +3006,31 @@
       </c>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="J52"/>
-      <c r="K52"/>
+      <c r="I52" t="s">
+        <v>530</v>
+      </c>
+      <c r="J52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -2918,41 +3039,34 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54" t="s">
-        <v>498</v>
-      </c>
-      <c r="J54" t="s">
-        <v>219</v>
-      </c>
-      <c r="K54" t="s">
-        <v>220</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2962,24 +3076,31 @@
       </c>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="J55"/>
-      <c r="K55"/>
+      <c r="I55" t="s">
+        <v>531</v>
+      </c>
+      <c r="J55" t="s">
+        <v>224</v>
+      </c>
+      <c r="K55" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
-        <v>437</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -2988,19 +3109,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3009,19 +3130,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -3030,19 +3151,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3051,19 +3172,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3072,41 +3193,34 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61" t="s">
-        <v>499</v>
-      </c>
-      <c r="J61" t="s">
-        <v>242</v>
-      </c>
-      <c r="K61" t="s">
-        <v>243</v>
-      </c>
+      <c r="J61"/>
+      <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="C62" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3117,7 +3231,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3131,10 +3245,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3144,430 +3258,472 @@
       </c>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="J63"/>
-      <c r="K63"/>
+      <c r="I63" t="s">
+        <v>533</v>
+      </c>
+      <c r="J63" t="s">
+        <v>252</v>
+      </c>
+      <c r="K63" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="J64"/>
-      <c r="K64"/>
+      <c r="I64" t="s">
+        <v>534</v>
+      </c>
+      <c r="J64" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="J65"/>
-      <c r="K65"/>
+      <c r="I65" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" t="s">
+        <v>262</v>
+      </c>
+      <c r="K65" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="C66" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66" t="s">
-        <v>501</v>
-      </c>
-      <c r="J66" t="s">
-        <v>261</v>
-      </c>
-      <c r="K66" t="s">
-        <v>262</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="J67" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K67" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="J68" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="J69"/>
-      <c r="K69"/>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>280</v>
+      </c>
+      <c r="K69" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C70" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70" t="s">
-        <v>504</v>
-      </c>
-      <c r="J70" t="s">
-        <v>279</v>
-      </c>
-      <c r="K70" t="s">
-        <v>280</v>
-      </c>
+      <c r="J70"/>
+      <c r="K70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C71" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71" t="s">
-        <v>505</v>
-      </c>
-      <c r="J71" t="s">
-        <v>284</v>
-      </c>
-      <c r="K71" t="s">
-        <v>285</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="I72" t="s">
+        <v>539</v>
+      </c>
+      <c r="J72" t="s">
+        <v>291</v>
+      </c>
+      <c r="K72" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73" t="s">
-        <v>506</v>
-      </c>
-      <c r="J73" t="s">
-        <v>290</v>
-      </c>
-      <c r="K73" t="s">
-        <v>291</v>
-      </c>
+      <c r="J73"/>
+      <c r="K73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="J74"/>
-      <c r="K74"/>
+      <c r="I74" t="s">
+        <v>540</v>
+      </c>
+      <c r="J74" t="s">
+        <v>299</v>
+      </c>
+      <c r="K74" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="C75" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="J75"/>
-      <c r="K75"/>
+      <c r="I75" t="s">
+        <v>541</v>
+      </c>
+      <c r="J75" t="s">
+        <v>304</v>
+      </c>
+      <c r="K75" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76" t="s">
-        <v>507</v>
-      </c>
-      <c r="J76" t="s">
-        <v>301</v>
-      </c>
-      <c r="K76" t="s">
-        <v>302</v>
-      </c>
+      <c r="J76"/>
+      <c r="K76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
-      <c r="J77"/>
-      <c r="K77"/>
+      <c r="I77" t="s">
+        <v>542</v>
+      </c>
+      <c r="J77" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B78" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>486</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>315</v>
+      </c>
+      <c r="K78" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
+      <c r="I79" t="s">
+        <v>544</v>
+      </c>
+      <c r="J79" t="s">
+        <v>320</v>
+      </c>
+      <c r="K79" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="J80"/>
-      <c r="K80"/>
+      <c r="I80" t="s">
+        <v>545</v>
+      </c>
+      <c r="J80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K80" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C81" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3576,19 +3732,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C82" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3597,19 +3753,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -3618,19 +3774,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D84" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -3639,19 +3795,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3660,19 +3816,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3681,19 +3837,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3702,19 +3858,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C88" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="D88" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E88" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3723,19 +3879,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C89" t="s">
-        <v>335</v>
+        <v>493</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3744,19 +3900,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D90" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E90" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3765,19 +3921,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3786,19 +3942,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E92" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3807,19 +3963,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3828,19 +3984,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3849,19 +4005,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="C95" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3870,19 +4026,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="D96" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="E96" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -3891,19 +4047,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C97" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E97" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -3912,30 +4068,114 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B98" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C98" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E98" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98" t="s">
-        <v>508</v>
-      </c>
-      <c r="J98" t="s">
-        <v>362</v>
-      </c>
-      <c r="K98" t="s">
-        <v>363</v>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" t="s">
+        <v>411</v>
+      </c>
+      <c r="C99" t="s">
+        <v>501</v>
+      </c>
+      <c r="D99" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" t="s">
+        <v>377</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" t="s">
+        <v>379</v>
+      </c>
+      <c r="E100" t="s">
+        <v>380</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" t="s">
+        <v>494</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" t="s">
+        <v>350</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>383</v>
+      </c>
+      <c r="B102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C102" t="s">
+        <v>503</v>
+      </c>
+      <c r="D102" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102" t="s">
+        <v>546</v>
+      </c>
+      <c r="J102" t="s">
+        <v>386</v>
+      </c>
+      <c r="K102" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Zone.xlsx
+++ b/Original/CN/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="550">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -722,6 +722,12 @@
     <t xml:space="preserve">死者の洞窟</t>
   </si>
   <si>
+    <t xml:space="preserve">A cold shiver ran through you, freezing you from the inside out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体の芯まで凍りつくような寒気を感じる。</t>
+  </si>
+  <si>
     <t xml:space="preserve">cave_lerna</t>
   </si>
   <si>
@@ -1334,7 +1340,7 @@
     <t xml:space="preserve">巢穴</t>
   </si>
   <si>
-    <t xml:space="preserve">鲁米艾斯特・环形山</t>
+    <t xml:space="preserve">鲁米艾斯特·环形山</t>
   </si>
   <si>
     <t xml:space="preserve">公会废墟</t>
@@ -1611,6 +1617,9 @@
   </si>
   <si>
     <t xml:space="preserve">这里有一座监狱。入口的门牢牢地锁着。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你感到冰冷彻骨的寒意。</t>
   </si>
   <si>
     <t xml:space="preserve">你看到了一片精心打理过的庭院。它温暖了你的心灵。</t>
@@ -1782,10 +1791,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1794,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1810,10 +1819,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1822,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1838,10 +1847,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1859,10 +1868,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1880,10 +1889,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1894,7 +1903,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1908,10 +1917,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1929,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1941,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1957,10 +1966,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1978,10 +1987,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1999,10 +2008,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -2020,10 +2029,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -2032,7 +2041,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2048,10 +2057,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -2060,7 +2069,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -2076,10 +2085,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2088,7 +2097,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -2104,10 +2113,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -2116,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2132,10 +2141,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2153,10 +2162,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2165,7 +2174,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2181,10 +2190,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2202,10 +2211,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2223,10 +2232,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2244,10 +2253,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2265,10 +2274,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2286,10 +2295,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2307,10 +2316,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2328,10 +2337,10 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -2342,7 +2351,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J26" t="s">
         <v>101</v>
@@ -2356,10 +2365,10 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
@@ -2370,7 +2379,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J27" t="s">
         <v>106</v>
@@ -2384,10 +2393,10 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
@@ -2398,7 +2407,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J28" t="s">
         <v>111</v>
@@ -2412,10 +2421,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2433,10 +2442,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2454,10 +2463,10 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
@@ -2468,7 +2477,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J31" t="s">
         <v>122</v>
@@ -2482,10 +2491,10 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -2496,7 +2505,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -2510,10 +2519,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2531,10 +2540,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2552,10 +2561,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2573,10 +2582,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2594,10 +2603,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2608,7 +2617,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2622,10 +2631,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2636,7 +2645,7 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J38" t="s">
         <v>149</v>
@@ -2650,10 +2659,10 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C39" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D39" t="s">
         <v>152</v>
@@ -2671,10 +2680,10 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
@@ -2692,10 +2701,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2706,7 +2715,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2720,10 +2729,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2734,7 +2743,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2748,10 +2757,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2762,7 +2771,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2776,10 +2785,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2790,7 +2799,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2804,10 +2813,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2818,7 +2827,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2832,10 +2841,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2846,7 +2855,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2860,10 +2869,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2874,7 +2883,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2888,10 +2897,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2902,7 +2911,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2916,10 +2925,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2930,7 +2939,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2944,10 +2953,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2958,7 +2967,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J50" t="s">
         <v>205</v>
@@ -2972,10 +2981,10 @@
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
         <v>208</v>
@@ -2993,10 +3002,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -3007,7 +3016,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J52" t="s">
         <v>213</v>
@@ -3021,10 +3030,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3042,10 +3051,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3063,10 +3072,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C55" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3077,7 +3086,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J55" t="s">
         <v>224</v>
@@ -3091,7 +3100,7 @@
         <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C56" t="s">
         <v>228</v>
@@ -3112,10 +3121,10 @@
         <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C57" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D57" t="s">
         <v>230</v>
@@ -3133,10 +3142,10 @@
         <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D58" t="s">
         <v>233</v>
@@ -3146,24 +3155,31 @@
       </c>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="J58"/>
-      <c r="K58"/>
+      <c r="I58" t="s">
+        <v>534</v>
+      </c>
+      <c r="J58" t="s">
+        <v>235</v>
+      </c>
+      <c r="K58" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3172,19 +3188,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3193,19 +3209,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3214,131 +3230,131 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C63" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C64" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C65" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="J65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C66" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3347,103 +3363,103 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C67" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C68" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J68" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3452,19 +3468,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -3473,47 +3489,47 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K72" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -3522,75 +3538,75 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C74" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D74" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="J74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K74" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C75" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -3599,131 +3615,131 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C77" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="J78" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B79" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C79" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J79" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K79" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="J80" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K80" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D81" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3732,19 +3748,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3753,13 +3769,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D83" t="s">
         <v>99</v>
@@ -3774,13 +3790,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C84" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D84" t="s">
         <v>99</v>
@@ -3795,19 +3811,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E85" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3816,19 +3832,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" t="s">
+        <v>492</v>
+      </c>
+      <c r="D86" t="s">
         <v>338</v>
       </c>
-      <c r="B86" t="s">
-        <v>407</v>
-      </c>
-      <c r="C86" t="s">
-        <v>490</v>
-      </c>
-      <c r="D86" t="s">
-        <v>336</v>
-      </c>
       <c r="E86" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3837,19 +3853,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C87" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D87" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3858,19 +3874,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D88" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E88" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3879,19 +3895,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C89" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3900,19 +3916,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3921,19 +3937,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B91" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E91" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3942,19 +3958,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3963,19 +3979,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D93" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E93" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3984,19 +4000,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C94" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E94" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -4005,19 +4021,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B95" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4026,19 +4042,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C96" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E96" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4047,19 +4063,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D97" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E97" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4068,19 +4084,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C98" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D98" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E98" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4089,19 +4105,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E99" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4110,19 +4126,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C100" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E100" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4131,19 +4147,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C101" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D101" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E101" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4152,30 +4168,30 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C102" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E102" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J102" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K102" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Zone.xlsx
+++ b/Original/CN/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="547">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -722,12 +722,6 @@
     <t xml:space="preserve">死者の洞窟</t>
   </si>
   <si>
-    <t xml:space="preserve">A cold shiver ran through you, freezing you from the inside out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体の芯まで凍りつくような寒気を感じる。</t>
-  </si>
-  <si>
     <t xml:space="preserve">cave_lerna</t>
   </si>
   <si>
@@ -1340,7 +1334,7 @@
     <t xml:space="preserve">巢穴</t>
   </si>
   <si>
-    <t xml:space="preserve">鲁米艾斯特·环形山</t>
+    <t xml:space="preserve">鲁米艾斯特・环形山</t>
   </si>
   <si>
     <t xml:space="preserve">公会废墟</t>
@@ -1617,9 +1611,6 @@
   </si>
   <si>
     <t xml:space="preserve">这里有一座监狱。入口的门牢牢地锁着。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你感到冰冷彻骨的寒意。</t>
   </si>
   <si>
     <t xml:space="preserve">你看到了一片精心打理过的庭院。它温暖了你的心灵。</t>
@@ -1791,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1803,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1819,10 +1810,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1831,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1847,10 +1838,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1868,10 +1859,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1889,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1903,7 +1894,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1917,10 +1908,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1938,7 +1929,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1950,7 +1941,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1966,10 +1957,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1987,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2008,10 +1999,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -2029,10 +2020,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -2041,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2057,10 +2048,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -2069,7 +2060,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -2085,10 +2076,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2097,7 +2088,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -2113,10 +2104,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -2125,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2141,10 +2132,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2162,10 +2153,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2174,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2190,10 +2181,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2211,10 +2202,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2232,10 +2223,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2253,10 +2244,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2274,10 +2265,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2295,10 +2286,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2316,10 +2307,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2337,10 +2328,10 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -2351,7 +2342,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J26" t="s">
         <v>101</v>
@@ -2365,10 +2356,10 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
@@ -2379,7 +2370,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J27" t="s">
         <v>106</v>
@@ -2393,10 +2384,10 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
@@ -2407,7 +2398,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J28" t="s">
         <v>111</v>
@@ -2421,10 +2412,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2442,10 +2433,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2463,10 +2454,10 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
@@ -2477,7 +2468,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J31" t="s">
         <v>122</v>
@@ -2491,10 +2482,10 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -2505,7 +2496,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -2519,10 +2510,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2540,10 +2531,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2561,10 +2552,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2582,10 +2573,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2603,10 +2594,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2617,7 +2608,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2631,10 +2622,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2645,7 +2636,7 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J38" t="s">
         <v>149</v>
@@ -2659,10 +2650,10 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D39" t="s">
         <v>152</v>
@@ -2680,10 +2671,10 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
@@ -2701,10 +2692,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2715,7 +2706,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2729,10 +2720,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2743,7 +2734,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2757,10 +2748,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2771,7 +2762,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2785,10 +2776,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2799,7 +2790,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2813,10 +2804,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2827,7 +2818,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2841,10 +2832,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2855,7 +2846,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2869,10 +2860,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2883,7 +2874,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2897,10 +2888,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2911,7 +2902,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2925,10 +2916,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2939,7 +2930,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2953,10 +2944,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2967,7 +2958,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J50" t="s">
         <v>205</v>
@@ -2981,10 +2972,10 @@
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
         <v>208</v>
@@ -3002,10 +2993,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -3016,7 +3007,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J52" t="s">
         <v>213</v>
@@ -3030,10 +3021,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3051,10 +3042,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3072,10 +3063,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3086,7 +3077,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J55" t="s">
         <v>224</v>
@@ -3100,7 +3091,7 @@
         <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
         <v>228</v>
@@ -3121,10 +3112,10 @@
         <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D57" t="s">
         <v>230</v>
@@ -3142,10 +3133,10 @@
         <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D58" t="s">
         <v>233</v>
@@ -3155,31 +3146,24 @@
       </c>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58" t="s">
-        <v>534</v>
-      </c>
-      <c r="J58" t="s">
-        <v>235</v>
-      </c>
-      <c r="K58" t="s">
-        <v>236</v>
-      </c>
+      <c r="J58"/>
+      <c r="K58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
         <v>237</v>
-      </c>
-      <c r="B59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s">
-        <v>470</v>
-      </c>
-      <c r="D59" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" t="s">
-        <v>239</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3188,19 +3172,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
         <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>390</v>
-      </c>
-      <c r="C60" t="s">
-        <v>471</v>
-      </c>
-      <c r="D60" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" t="s">
-        <v>242</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3209,19 +3193,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>388</v>
+      </c>
+      <c r="C61" t="s">
+        <v>470</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
         <v>243</v>
-      </c>
-      <c r="B61" t="s">
-        <v>390</v>
-      </c>
-      <c r="C61" t="s">
-        <v>472</v>
-      </c>
-      <c r="D61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" t="s">
-        <v>245</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3230,131 +3214,131 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" t="s">
         <v>246</v>
-      </c>
-      <c r="B62" t="s">
-        <v>403</v>
-      </c>
-      <c r="C62" t="s">
-        <v>473</v>
-      </c>
-      <c r="D62" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" t="s">
-        <v>248</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" t="s">
+        <v>388</v>
+      </c>
+      <c r="C63" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
         <v>251</v>
-      </c>
-      <c r="B63" t="s">
-        <v>390</v>
-      </c>
-      <c r="C63" t="s">
-        <v>474</v>
-      </c>
-      <c r="D63" t="s">
-        <v>252</v>
-      </c>
-      <c r="E63" t="s">
-        <v>253</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" t="s">
+        <v>473</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" t="s">
         <v>256</v>
-      </c>
-      <c r="B64" t="s">
-        <v>390</v>
-      </c>
-      <c r="C64" t="s">
-        <v>475</v>
-      </c>
-      <c r="D64" t="s">
-        <v>257</v>
-      </c>
-      <c r="E64" t="s">
-        <v>258</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" t="s">
+        <v>474</v>
+      </c>
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
         <v>261</v>
-      </c>
-      <c r="B65" t="s">
-        <v>390</v>
-      </c>
-      <c r="C65" t="s">
-        <v>476</v>
-      </c>
-      <c r="D65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" t="s">
-        <v>263</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J65" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>475</v>
+      </c>
+      <c r="D66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" t="s">
         <v>266</v>
-      </c>
-      <c r="B66" t="s">
-        <v>404</v>
-      </c>
-      <c r="C66" t="s">
-        <v>477</v>
-      </c>
-      <c r="D66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" t="s">
-        <v>268</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3363,103 +3347,103 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" t="s">
+        <v>403</v>
+      </c>
+      <c r="C67" t="s">
+        <v>476</v>
+      </c>
+      <c r="D67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" t="s">
         <v>269</v>
-      </c>
-      <c r="B67" t="s">
-        <v>405</v>
-      </c>
-      <c r="C67" t="s">
-        <v>478</v>
-      </c>
-      <c r="D67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E67" t="s">
-        <v>271</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" t="s">
+        <v>477</v>
+      </c>
+      <c r="D68" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68" t="s">
         <v>274</v>
-      </c>
-      <c r="B68" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D68" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" t="s">
-        <v>276</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" t="s">
+        <v>478</v>
+      </c>
+      <c r="D69" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" t="s">
         <v>279</v>
-      </c>
-      <c r="B69" t="s">
-        <v>390</v>
-      </c>
-      <c r="C69" t="s">
-        <v>480</v>
-      </c>
-      <c r="D69" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" t="s">
-        <v>281</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J69" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>479</v>
+      </c>
+      <c r="D70" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" t="s">
         <v>284</v>
-      </c>
-      <c r="B70" t="s">
-        <v>406</v>
-      </c>
-      <c r="C70" t="s">
-        <v>481</v>
-      </c>
-      <c r="D70" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" t="s">
-        <v>286</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3468,19 +3452,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>480</v>
+      </c>
+      <c r="D71" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" t="s">
         <v>287</v>
-      </c>
-      <c r="B71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C71" t="s">
-        <v>482</v>
-      </c>
-      <c r="D71" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" t="s">
-        <v>289</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -3489,47 +3473,47 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>481</v>
+      </c>
+      <c r="D72" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" t="s">
         <v>290</v>
-      </c>
-      <c r="B72" t="s">
-        <v>390</v>
-      </c>
-      <c r="C72" t="s">
-        <v>483</v>
-      </c>
-      <c r="D72" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" t="s">
-        <v>292</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" t="s">
+        <v>482</v>
+      </c>
+      <c r="D73" t="s">
+        <v>294</v>
+      </c>
+      <c r="E73" t="s">
         <v>295</v>
-      </c>
-      <c r="B73" t="s">
-        <v>390</v>
-      </c>
-      <c r="C73" t="s">
-        <v>484</v>
-      </c>
-      <c r="D73" t="s">
-        <v>296</v>
-      </c>
-      <c r="E73" t="s">
-        <v>297</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -3538,75 +3522,75 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" t="s">
+        <v>405</v>
+      </c>
+      <c r="C74" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" t="s">
         <v>298</v>
-      </c>
-      <c r="B74" t="s">
-        <v>407</v>
-      </c>
-      <c r="C74" t="s">
-        <v>485</v>
-      </c>
-      <c r="D74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" t="s">
-        <v>300</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" t="s">
         <v>303</v>
-      </c>
-      <c r="B75" t="s">
-        <v>407</v>
-      </c>
-      <c r="C75" t="s">
-        <v>486</v>
-      </c>
-      <c r="D75" t="s">
-        <v>304</v>
-      </c>
-      <c r="E75" t="s">
-        <v>305</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -3615,131 +3599,131 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" t="s">
+        <v>388</v>
+      </c>
+      <c r="C77" t="s">
+        <v>485</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
         <v>309</v>
-      </c>
-      <c r="B77" t="s">
-        <v>390</v>
-      </c>
-      <c r="C77" t="s">
-        <v>487</v>
-      </c>
-      <c r="D77" t="s">
-        <v>310</v>
-      </c>
-      <c r="E77" t="s">
-        <v>311</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" t="s">
         <v>314</v>
-      </c>
-      <c r="B78" t="s">
-        <v>408</v>
-      </c>
-      <c r="C78" t="s">
-        <v>488</v>
-      </c>
-      <c r="D78" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" t="s">
-        <v>316</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" t="s">
+        <v>397</v>
+      </c>
+      <c r="C79" t="s">
+        <v>487</v>
+      </c>
+      <c r="D79" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" t="s">
         <v>319</v>
-      </c>
-      <c r="B79" t="s">
-        <v>399</v>
-      </c>
-      <c r="C79" t="s">
-        <v>489</v>
-      </c>
-      <c r="D79" t="s">
-        <v>320</v>
-      </c>
-      <c r="E79" t="s">
-        <v>321</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" t="s">
+        <v>488</v>
+      </c>
+      <c r="D80" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" t="s">
         <v>324</v>
-      </c>
-      <c r="B80" t="s">
-        <v>390</v>
-      </c>
-      <c r="C80" t="s">
-        <v>490</v>
-      </c>
-      <c r="D80" t="s">
-        <v>325</v>
-      </c>
-      <c r="E80" t="s">
-        <v>326</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J80" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" t="s">
+        <v>489</v>
+      </c>
+      <c r="D81" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" t="s">
         <v>329</v>
-      </c>
-      <c r="B81" t="s">
-        <v>390</v>
-      </c>
-      <c r="C81" t="s">
-        <v>491</v>
-      </c>
-      <c r="D81" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" t="s">
-        <v>331</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3748,19 +3732,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" t="s">
         <v>332</v>
       </c>
-      <c r="B82" t="s">
-        <v>390</v>
-      </c>
-      <c r="C82" t="s">
-        <v>334</v>
-      </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3769,13 +3753,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D83" t="s">
         <v>99</v>
@@ -3790,13 +3774,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D84" t="s">
         <v>99</v>
@@ -3811,19 +3795,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>490</v>
+      </c>
+      <c r="D85" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" t="s">
         <v>337</v>
-      </c>
-      <c r="B85" t="s">
-        <v>390</v>
-      </c>
-      <c r="C85" t="s">
-        <v>492</v>
-      </c>
-      <c r="D85" t="s">
-        <v>338</v>
-      </c>
-      <c r="E85" t="s">
-        <v>339</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3832,19 +3816,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3853,19 +3837,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" t="s">
+        <v>408</v>
+      </c>
+      <c r="C87" t="s">
+        <v>491</v>
+      </c>
+      <c r="D87" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" t="s">
         <v>341</v>
-      </c>
-      <c r="B87" t="s">
-        <v>410</v>
-      </c>
-      <c r="C87" t="s">
-        <v>493</v>
-      </c>
-      <c r="D87" t="s">
-        <v>342</v>
-      </c>
-      <c r="E87" t="s">
-        <v>343</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3874,19 +3858,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>342</v>
+      </c>
+      <c r="B88" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" t="s">
+        <v>492</v>
+      </c>
+      <c r="D88" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88" t="s">
         <v>344</v>
-      </c>
-      <c r="B88" t="s">
-        <v>411</v>
-      </c>
-      <c r="C88" t="s">
-        <v>494</v>
-      </c>
-      <c r="D88" t="s">
-        <v>345</v>
-      </c>
-      <c r="E88" t="s">
-        <v>346</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3895,19 +3879,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>493</v>
+      </c>
+      <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" t="s">
         <v>347</v>
-      </c>
-      <c r="B89" t="s">
-        <v>395</v>
-      </c>
-      <c r="C89" t="s">
-        <v>495</v>
-      </c>
-      <c r="D89" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" t="s">
-        <v>349</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3916,19 +3900,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" t="s">
+        <v>494</v>
+      </c>
+      <c r="D90" t="s">
+        <v>349</v>
+      </c>
+      <c r="E90" t="s">
         <v>350</v>
-      </c>
-      <c r="B90" t="s">
-        <v>395</v>
-      </c>
-      <c r="C90" t="s">
-        <v>496</v>
-      </c>
-      <c r="D90" t="s">
-        <v>351</v>
-      </c>
-      <c r="E90" t="s">
-        <v>352</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3937,19 +3921,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" t="s">
+        <v>396</v>
+      </c>
+      <c r="C91" t="s">
+        <v>495</v>
+      </c>
+      <c r="D91" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" t="s">
         <v>353</v>
-      </c>
-      <c r="B91" t="s">
-        <v>398</v>
-      </c>
-      <c r="C91" t="s">
-        <v>497</v>
-      </c>
-      <c r="D91" t="s">
-        <v>354</v>
-      </c>
-      <c r="E91" t="s">
-        <v>355</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3958,19 +3942,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>396</v>
+      </c>
+      <c r="C92" t="s">
+        <v>496</v>
+      </c>
+      <c r="D92" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92" t="s">
         <v>356</v>
-      </c>
-      <c r="B92" t="s">
-        <v>398</v>
-      </c>
-      <c r="C92" t="s">
-        <v>498</v>
-      </c>
-      <c r="D92" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92" t="s">
-        <v>358</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3979,19 +3963,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" t="s">
         <v>359</v>
       </c>
-      <c r="B93" t="s">
-        <v>401</v>
-      </c>
-      <c r="C93" t="s">
-        <v>361</v>
-      </c>
       <c r="D93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -4000,19 +3984,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" t="s">
+        <v>497</v>
+      </c>
+      <c r="D94" t="s">
+        <v>361</v>
+      </c>
+      <c r="E94" t="s">
         <v>362</v>
-      </c>
-      <c r="B94" t="s">
-        <v>412</v>
-      </c>
-      <c r="C94" t="s">
-        <v>499</v>
-      </c>
-      <c r="D94" t="s">
-        <v>363</v>
-      </c>
-      <c r="E94" t="s">
-        <v>364</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -4021,19 +4005,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" t="s">
         <v>365</v>
       </c>
-      <c r="B95" t="s">
-        <v>412</v>
-      </c>
-      <c r="C95" t="s">
-        <v>367</v>
-      </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E95" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4042,19 +4026,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>366</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" t="s">
+        <v>498</v>
+      </c>
+      <c r="D96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" t="s">
         <v>368</v>
-      </c>
-      <c r="B96" t="s">
-        <v>401</v>
-      </c>
-      <c r="C96" t="s">
-        <v>500</v>
-      </c>
-      <c r="D96" t="s">
-        <v>369</v>
-      </c>
-      <c r="E96" t="s">
-        <v>370</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4063,19 +4047,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" t="s">
+        <v>370</v>
+      </c>
+      <c r="E97" t="s">
         <v>371</v>
-      </c>
-      <c r="B97" t="s">
-        <v>401</v>
-      </c>
-      <c r="C97" t="s">
-        <v>501</v>
-      </c>
-      <c r="D97" t="s">
-        <v>372</v>
-      </c>
-      <c r="E97" t="s">
-        <v>373</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4084,19 +4068,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>372</v>
+      </c>
+      <c r="B98" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" t="s">
+        <v>500</v>
+      </c>
+      <c r="D98" t="s">
+        <v>373</v>
+      </c>
+      <c r="E98" t="s">
         <v>374</v>
-      </c>
-      <c r="B98" t="s">
-        <v>405</v>
-      </c>
-      <c r="C98" t="s">
-        <v>502</v>
-      </c>
-      <c r="D98" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" t="s">
-        <v>376</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4105,19 +4089,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" t="s">
+        <v>411</v>
+      </c>
+      <c r="C99" t="s">
+        <v>501</v>
+      </c>
+      <c r="D99" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" t="s">
         <v>377</v>
-      </c>
-      <c r="B99" t="s">
-        <v>413</v>
-      </c>
-      <c r="C99" t="s">
-        <v>503</v>
-      </c>
-      <c r="D99" t="s">
-        <v>378</v>
-      </c>
-      <c r="E99" t="s">
-        <v>379</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4126,19 +4110,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" t="s">
+        <v>379</v>
+      </c>
+      <c r="E100" t="s">
         <v>380</v>
-      </c>
-      <c r="B100" t="s">
-        <v>390</v>
-      </c>
-      <c r="C100" t="s">
-        <v>504</v>
-      </c>
-      <c r="D100" t="s">
-        <v>381</v>
-      </c>
-      <c r="E100" t="s">
-        <v>382</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4147,19 +4131,19 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C101" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4168,30 +4152,30 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>383</v>
+      </c>
+      <c r="B102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C102" t="s">
+        <v>503</v>
+      </c>
+      <c r="D102" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" t="s">
         <v>385</v>
-      </c>
-      <c r="B102" t="s">
-        <v>415</v>
-      </c>
-      <c r="C102" t="s">
-        <v>505</v>
-      </c>
-      <c r="D102" t="s">
-        <v>386</v>
-      </c>
-      <c r="E102" t="s">
-        <v>387</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J102" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K102" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
